--- a/xlsx/阿根廷_intext.xlsx
+++ b/xlsx/阿根廷_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_行政_阿根廷</t>
+    <t>体育运动_体育运动_伊朗_阿根廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9C%8B%E6%97%97</t>
